--- a/Overzicht_per_maand.xlsx
+++ b/Overzicht_per_maand.xlsx
@@ -611,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1167</v>
+        <v>964</v>
       </c>
       <c r="C3">
-        <v>650938.6</v>
+        <v>560079.8199999999</v>
       </c>
       <c r="D3">
-        <v>928</v>
+        <v>791</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -625,13 +625,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1543</v>
+        <v>1394</v>
       </c>
       <c r="C4">
-        <v>1152839.06</v>
+        <v>1058527.53</v>
       </c>
       <c r="D4">
-        <v>1201</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -639,13 +639,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1483</v>
+        <v>1394</v>
       </c>
       <c r="C5">
-        <v>1147994.84</v>
+        <v>1092140.07</v>
       </c>
       <c r="D5">
-        <v>1132</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -653,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>2755</v>
+        <v>2577</v>
       </c>
       <c r="C6">
-        <v>2413270</v>
+        <v>2085363.7</v>
       </c>
       <c r="D6">
-        <v>2054</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -667,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>3891</v>
+        <v>3664</v>
       </c>
       <c r="C7">
-        <v>2851707.31</v>
+        <v>2732939.99</v>
       </c>
       <c r="D7">
-        <v>2750</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -681,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>1230</v>
+        <v>1129</v>
       </c>
       <c r="C8">
-        <v>776157.4299999999</v>
+        <v>745167.8400000001</v>
       </c>
       <c r="D8">
-        <v>941</v>
+        <v>875</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -695,13 +695,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>1620</v>
+        <v>1521</v>
       </c>
       <c r="C9">
-        <v>1144916.26</v>
+        <v>1094538.2</v>
       </c>
       <c r="D9">
-        <v>1282</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -709,13 +709,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>2250</v>
+        <v>2108</v>
       </c>
       <c r="C10">
-        <v>2774935.59</v>
+        <v>1859518.93</v>
       </c>
       <c r="D10">
-        <v>1664</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -723,13 +723,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>2836</v>
+        <v>2670</v>
       </c>
       <c r="C11">
-        <v>2242698.03</v>
+        <v>2055585.28</v>
       </c>
       <c r="D11">
-        <v>2104</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -737,13 +737,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>3397</v>
+        <v>2909</v>
       </c>
       <c r="C12">
-        <v>2598271.64</v>
+        <v>1895463.27</v>
       </c>
       <c r="D12">
-        <v>2520</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -765,13 +765,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>1378</v>
+        <v>1233</v>
       </c>
       <c r="C14">
-        <v>832168.8400000001</v>
+        <v>769235.4</v>
       </c>
       <c r="D14">
-        <v>1061</v>
+        <v>979</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -779,13 +779,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>1710</v>
+        <v>1591</v>
       </c>
       <c r="C15">
-        <v>1704206.69</v>
+        <v>1643017.5</v>
       </c>
       <c r="D15">
-        <v>1290</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -793,13 +793,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>1971</v>
+        <v>1852</v>
       </c>
       <c r="C16">
-        <v>1464618.94</v>
+        <v>1357478.76</v>
       </c>
       <c r="D16">
-        <v>1532</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -807,13 +807,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>2887</v>
+        <v>2510</v>
       </c>
       <c r="C17">
-        <v>2560238.689999999</v>
+        <v>2237921.95</v>
       </c>
       <c r="D17">
-        <v>2105</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -821,13 +821,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>940</v>
+        <v>788</v>
       </c>
       <c r="C18">
-        <v>484468.24</v>
+        <v>427199.89</v>
       </c>
       <c r="D18">
-        <v>787</v>
+        <v>664</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>1215</v>
+        <v>1109</v>
       </c>
       <c r="C19">
-        <v>1024205.34</v>
+        <v>971771.72</v>
       </c>
       <c r="D19">
-        <v>955</v>
+        <v>889</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -849,13 +849,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>1525</v>
+        <v>1454</v>
       </c>
       <c r="C20">
-        <v>1180510.62</v>
+        <v>1123027.5</v>
       </c>
       <c r="D20">
-        <v>1164</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -863,13 +863,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>2379</v>
+        <v>2201</v>
       </c>
       <c r="C21">
-        <v>2003796.9</v>
+        <v>1817575.65</v>
       </c>
       <c r="D21">
-        <v>1804</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -877,13 +877,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>3191</v>
+        <v>2937</v>
       </c>
       <c r="C22">
-        <v>2590296.35</v>
+        <v>2344139.05</v>
       </c>
       <c r="D22">
-        <v>2306</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -891,13 +891,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>1051</v>
+        <v>874</v>
       </c>
       <c r="C23">
-        <v>629355.29</v>
+        <v>563373.21</v>
       </c>
       <c r="D23">
-        <v>891</v>
+        <v>746</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -905,13 +905,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>1156</v>
+        <v>1043</v>
       </c>
       <c r="C24">
-        <v>788061.25</v>
+        <v>700137.12</v>
       </c>
       <c r="D24">
-        <v>913</v>
+        <v>833</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -919,13 +919,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>1546</v>
+        <v>1463</v>
       </c>
       <c r="C25">
-        <v>1344513</v>
+        <v>1298489.78</v>
       </c>
       <c r="D25">
-        <v>1166</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -933,13 +933,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>2340</v>
+        <v>2121</v>
       </c>
       <c r="C26">
-        <v>1948770.38</v>
+        <v>1586281.64</v>
       </c>
       <c r="D26">
-        <v>1713</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -947,13 +947,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>2970</v>
+        <v>2798</v>
       </c>
       <c r="C27">
-        <v>2599645.01</v>
+        <v>2401878.83</v>
       </c>
       <c r="D27">
-        <v>2128</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -975,13 +975,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>1210</v>
+        <v>1065</v>
       </c>
       <c r="C29">
-        <v>943185.7200000001</v>
+        <v>898228.8100000001</v>
       </c>
       <c r="D29">
-        <v>891</v>
+        <v>810</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -989,13 +989,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>1309</v>
+        <v>1199</v>
       </c>
       <c r="C30">
-        <v>874465.53</v>
+        <v>772597.6899999999</v>
       </c>
       <c r="D30">
-        <v>1044</v>
+        <v>974</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1003,13 +1003,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>1707</v>
+        <v>1618</v>
       </c>
       <c r="C31">
-        <v>1534700.18</v>
+        <v>1469042.52</v>
       </c>
       <c r="D31">
-        <v>1296</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1017,13 +1017,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>2604</v>
+        <v>2485</v>
       </c>
       <c r="C32">
-        <v>2450381.68</v>
+        <v>2366357.57</v>
       </c>
       <c r="D32">
-        <v>1946</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1031,13 +1031,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>3591</v>
+        <v>3312</v>
       </c>
       <c r="C33">
-        <v>2995182.82</v>
+        <v>2750979.59</v>
       </c>
       <c r="D33">
-        <v>2623</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1045,13 +1045,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>1459</v>
+        <v>1247</v>
       </c>
       <c r="C34">
-        <v>985807.5699999999</v>
+        <v>914485.6699999999</v>
       </c>
       <c r="D34">
-        <v>1127</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1059,13 +1059,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>1821</v>
+        <v>1694</v>
       </c>
       <c r="C35">
-        <v>1267419.53</v>
+        <v>1176956.74</v>
       </c>
       <c r="D35">
-        <v>1423</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1073,13 +1073,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>2417</v>
+        <v>2286</v>
       </c>
       <c r="C36">
-        <v>1786299</v>
+        <v>1699628.01</v>
       </c>
       <c r="D36">
-        <v>1880</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1087,13 +1087,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>3338</v>
+        <v>3141</v>
       </c>
       <c r="C37">
-        <v>2854314.74</v>
+        <v>2751621.94</v>
       </c>
       <c r="D37">
-        <v>2506</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1101,13 +1101,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>4568</v>
+        <v>4213</v>
       </c>
       <c r="C38">
-        <v>3522892.59</v>
+        <v>2973881.31</v>
       </c>
       <c r="D38">
-        <v>3154</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>1250</v>
+        <v>1015</v>
       </c>
       <c r="C39">
-        <v>688929.6000000001</v>
+        <v>589236.75</v>
       </c>
       <c r="D39">
-        <v>959</v>
+        <v>806</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1129,13 +1129,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>1391</v>
+        <v>1302</v>
       </c>
       <c r="C40">
-        <v>1128716.83</v>
+        <v>1066278.23</v>
       </c>
       <c r="D40">
-        <v>1097</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1143,13 +1143,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>1856</v>
+        <v>1732</v>
       </c>
       <c r="C41">
-        <v>3675347.17</v>
+        <v>1397398.28</v>
       </c>
       <c r="D41">
-        <v>1423</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1157,13 +1157,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>2937</v>
+        <v>2806</v>
       </c>
       <c r="C42">
-        <v>2232520.19</v>
+        <v>2172597.54</v>
       </c>
       <c r="D42">
-        <v>2289</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1171,13 +1171,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>3802</v>
+        <v>3528</v>
       </c>
       <c r="C43">
-        <v>3109431.82</v>
+        <v>2888053.87</v>
       </c>
       <c r="D43">
-        <v>2689</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1185,13 +1185,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>1291</v>
+        <v>1084</v>
       </c>
       <c r="C44">
-        <v>671195.79</v>
+        <v>594147.5600000001</v>
       </c>
       <c r="D44">
-        <v>1001</v>
+        <v>870</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1199,13 +1199,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>1785</v>
+        <v>1633</v>
       </c>
       <c r="C45">
-        <v>2196509.72</v>
+        <v>1346283.71</v>
       </c>
       <c r="D45">
-        <v>1371</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1213,13 +1213,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>2129</v>
+        <v>2003</v>
       </c>
       <c r="C46">
-        <v>1913955.77</v>
+        <v>1832747.08</v>
       </c>
       <c r="D46">
-        <v>1647</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1227,13 +1227,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>3211</v>
+        <v>3036</v>
       </c>
       <c r="C47">
-        <v>2385907.57</v>
+        <v>2306824.39</v>
       </c>
       <c r="D47">
-        <v>2402</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1241,13 +1241,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>4962</v>
+        <v>4629</v>
       </c>
       <c r="C48">
-        <v>3719862.96</v>
+        <v>3343812.17</v>
       </c>
       <c r="D48">
-        <v>3401</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1269,13 +1269,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>1844</v>
+        <v>1649</v>
       </c>
       <c r="C50">
-        <v>1242328.99</v>
+        <v>1156252.05</v>
       </c>
       <c r="D50">
-        <v>1482</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1283,13 +1283,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>2493</v>
+        <v>2353</v>
       </c>
       <c r="C51">
-        <v>2208254.13</v>
+        <v>2121238.36</v>
       </c>
       <c r="D51">
-        <v>1928</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1297,13 +1297,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>3429</v>
+        <v>3232</v>
       </c>
       <c r="C52">
-        <v>3016269.24</v>
+        <v>2830772</v>
       </c>
       <c r="D52">
-        <v>2573</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1311,13 +1311,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>4863</v>
+        <v>4628</v>
       </c>
       <c r="C53">
-        <v>3937461.54</v>
+        <v>3839136.4</v>
       </c>
       <c r="D53">
-        <v>3679</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1339,13 +1339,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>1564</v>
+        <v>1405</v>
       </c>
       <c r="C55">
-        <v>959509.03</v>
+        <v>901491.8100000001</v>
       </c>
       <c r="D55">
-        <v>1267</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1353,13 +1353,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>1916</v>
+        <v>1812</v>
       </c>
       <c r="C56">
-        <v>2630768.23</v>
+        <v>2585838.8</v>
       </c>
       <c r="D56">
-        <v>1530</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1367,13 +1367,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>2711</v>
+        <v>2565</v>
       </c>
       <c r="C57">
-        <v>3039645.36</v>
+        <v>2920805.42</v>
       </c>
       <c r="D57">
-        <v>2037</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1381,13 +1381,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>4121</v>
+        <v>3877</v>
       </c>
       <c r="C58">
-        <v>3470440.28</v>
+        <v>3273778.02</v>
       </c>
       <c r="D58">
-        <v>2973</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1409,13 +1409,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>1683</v>
+        <v>1482</v>
       </c>
       <c r="C60">
-        <v>990252.4500000001</v>
+        <v>881050.2000000001</v>
       </c>
       <c r="D60">
-        <v>1302</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1423,13 +1423,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>1902</v>
+        <v>1782</v>
       </c>
       <c r="C61">
-        <v>1302117.95</v>
+        <v>1234563.61</v>
       </c>
       <c r="D61">
-        <v>1513</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1437,13 +1437,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>2549</v>
+        <v>2415</v>
       </c>
       <c r="C62">
-        <v>2194326.22</v>
+        <v>1937747.57</v>
       </c>
       <c r="D62">
-        <v>1893</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1451,13 +1451,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>3196</v>
+        <v>3018</v>
       </c>
       <c r="C63">
-        <v>2830206.14</v>
+        <v>2640538.73</v>
       </c>
       <c r="D63">
-        <v>2354</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1465,13 +1465,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>1649</v>
+        <v>510</v>
       </c>
       <c r="C64">
-        <v>1221750.2</v>
+        <v>241070.67</v>
       </c>
       <c r="D64">
-        <v>1273</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/Overzicht_per_maand.xlsx
+++ b/Overzicht_per_maand.xlsx
@@ -28,193 +28,193 @@
     <t>month_yr</t>
   </si>
   <si>
-    <t>Apr-2014</t>
-  </si>
-  <si>
-    <t>Apr-2015</t>
-  </si>
-  <si>
-    <t>Apr-2016</t>
-  </si>
-  <si>
-    <t>Apr-2017</t>
-  </si>
-  <si>
-    <t>Apr-2018</t>
-  </si>
-  <si>
-    <t>Apr-2019</t>
-  </si>
-  <si>
-    <t>Aug-2015</t>
-  </si>
-  <si>
-    <t>Aug-2016</t>
-  </si>
-  <si>
-    <t>Aug-2017</t>
-  </si>
-  <si>
-    <t>Aug-2018</t>
-  </si>
-  <si>
-    <t>Aug-2019</t>
-  </si>
-  <si>
-    <t>Dec-2014</t>
-  </si>
-  <si>
-    <t>Dec-2015</t>
-  </si>
-  <si>
-    <t>Dec-2016</t>
-  </si>
-  <si>
-    <t>Dec-2017</t>
-  </si>
-  <si>
-    <t>Dec-2018</t>
-  </si>
-  <si>
-    <t>Feb-2015</t>
-  </si>
-  <si>
-    <t>Feb-2016</t>
-  </si>
-  <si>
-    <t>Feb-2017</t>
-  </si>
-  <si>
-    <t>Feb-2018</t>
-  </si>
-  <si>
-    <t>Feb-2019</t>
-  </si>
-  <si>
-    <t>Jan-2015</t>
-  </si>
-  <si>
-    <t>Jan-2016</t>
-  </si>
-  <si>
-    <t>Jan-2017</t>
-  </si>
-  <si>
-    <t>Jan-2018</t>
-  </si>
-  <si>
-    <t>Jan-2019</t>
-  </si>
-  <si>
-    <t>Jul-2014</t>
-  </si>
-  <si>
-    <t>Jul-2015</t>
-  </si>
-  <si>
-    <t>Jul-2016</t>
-  </si>
-  <si>
-    <t>Jul-2017</t>
-  </si>
-  <si>
-    <t>Jul-2018</t>
-  </si>
-  <si>
-    <t>Jul-2019</t>
-  </si>
-  <si>
-    <t>Jun-2015</t>
-  </si>
-  <si>
-    <t>Jun-2016</t>
-  </si>
-  <si>
-    <t>Jun-2017</t>
-  </si>
-  <si>
-    <t>Jun-2018</t>
-  </si>
-  <si>
-    <t>Jun-2019</t>
-  </si>
-  <si>
-    <t>Mar-2015</t>
-  </si>
-  <si>
-    <t>Mar-2016</t>
-  </si>
-  <si>
-    <t>Mar-2017</t>
-  </si>
-  <si>
-    <t>Mar-2018</t>
-  </si>
-  <si>
-    <t>Mar-2019</t>
-  </si>
-  <si>
-    <t>May-2015</t>
-  </si>
-  <si>
-    <t>May-2016</t>
-  </si>
-  <si>
-    <t>May-2017</t>
-  </si>
-  <si>
-    <t>May-2018</t>
-  </si>
-  <si>
-    <t>May-2019</t>
-  </si>
-  <si>
-    <t>Nov-2014</t>
-  </si>
-  <si>
-    <t>Nov-2015</t>
-  </si>
-  <si>
-    <t>Nov-2016</t>
-  </si>
-  <si>
-    <t>Nov-2017</t>
-  </si>
-  <si>
-    <t>Nov-2018</t>
-  </si>
-  <si>
-    <t>Oct-2014</t>
-  </si>
-  <si>
-    <t>Oct-2015</t>
-  </si>
-  <si>
-    <t>Oct-2016</t>
-  </si>
-  <si>
-    <t>Oct-2017</t>
-  </si>
-  <si>
-    <t>Oct-2018</t>
-  </si>
-  <si>
-    <t>Sep-2014</t>
-  </si>
-  <si>
-    <t>Sep-2015</t>
-  </si>
-  <si>
-    <t>Sep-2016</t>
-  </si>
-  <si>
-    <t>Sep-2017</t>
-  </si>
-  <si>
-    <t>Sep-2018</t>
-  </si>
-  <si>
-    <t>Sep-2019</t>
+    <t>Apr 2014</t>
+  </si>
+  <si>
+    <t>Apr 2015</t>
+  </si>
+  <si>
+    <t>Apr 2016</t>
+  </si>
+  <si>
+    <t>Apr 2017</t>
+  </si>
+  <si>
+    <t>Apr 2018</t>
+  </si>
+  <si>
+    <t>Apr 2019</t>
+  </si>
+  <si>
+    <t>Aug 2015</t>
+  </si>
+  <si>
+    <t>Aug 2016</t>
+  </si>
+  <si>
+    <t>Aug 2017</t>
+  </si>
+  <si>
+    <t>Aug 2018</t>
+  </si>
+  <si>
+    <t>Aug 2019</t>
+  </si>
+  <si>
+    <t>Dec 2014</t>
+  </si>
+  <si>
+    <t>Dec 2015</t>
+  </si>
+  <si>
+    <t>Dec 2016</t>
+  </si>
+  <si>
+    <t>Dec 2017</t>
+  </si>
+  <si>
+    <t>Dec 2018</t>
+  </si>
+  <si>
+    <t>Feb 2015</t>
+  </si>
+  <si>
+    <t>Feb 2016</t>
+  </si>
+  <si>
+    <t>Feb 2017</t>
+  </si>
+  <si>
+    <t>Feb 2018</t>
+  </si>
+  <si>
+    <t>Feb 2019</t>
+  </si>
+  <si>
+    <t>Jan 2015</t>
+  </si>
+  <si>
+    <t>Jan 2016</t>
+  </si>
+  <si>
+    <t>Jan 2017</t>
+  </si>
+  <si>
+    <t>Jan 2018</t>
+  </si>
+  <si>
+    <t>Jan 2019</t>
+  </si>
+  <si>
+    <t>Jul 2014</t>
+  </si>
+  <si>
+    <t>Jul 2015</t>
+  </si>
+  <si>
+    <t>Jul 2016</t>
+  </si>
+  <si>
+    <t>Jul 2017</t>
+  </si>
+  <si>
+    <t>Jul 2018</t>
+  </si>
+  <si>
+    <t>Jul 2019</t>
+  </si>
+  <si>
+    <t>Jun 2015</t>
+  </si>
+  <si>
+    <t>Jun 2016</t>
+  </si>
+  <si>
+    <t>Jun 2017</t>
+  </si>
+  <si>
+    <t>Jun 2018</t>
+  </si>
+  <si>
+    <t>Jun 2019</t>
+  </si>
+  <si>
+    <t>Mar 2015</t>
+  </si>
+  <si>
+    <t>Mar 2016</t>
+  </si>
+  <si>
+    <t>Mar 2017</t>
+  </si>
+  <si>
+    <t>Mar 2018</t>
+  </si>
+  <si>
+    <t>Mar 2019</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>May 2019</t>
+  </si>
+  <si>
+    <t>Nov 2014</t>
+  </si>
+  <si>
+    <t>Nov 2015</t>
+  </si>
+  <si>
+    <t>Nov 2016</t>
+  </si>
+  <si>
+    <t>Nov 2017</t>
+  </si>
+  <si>
+    <t>Nov 2018</t>
+  </si>
+  <si>
+    <t>Oct 2014</t>
+  </si>
+  <si>
+    <t>Oct 2015</t>
+  </si>
+  <si>
+    <t>Oct 2016</t>
+  </si>
+  <si>
+    <t>Oct 2017</t>
+  </si>
+  <si>
+    <t>Oct 2018</t>
+  </si>
+  <si>
+    <t>Sep 2014</t>
+  </si>
+  <si>
+    <t>Sep 2015</t>
+  </si>
+  <si>
+    <t>Sep 2016</t>
+  </si>
+  <si>
+    <t>Sep 2017</t>
+  </si>
+  <si>
+    <t>Sep 2018</t>
+  </si>
+  <si>
+    <t>Sep 2019</t>
   </si>
 </sst>
 </file>

--- a/Overzicht_per_maand.xlsx
+++ b/Overzicht_per_maand.xlsx
@@ -437,10 +437,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -451,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>11783.7</v>
+        <v>6077.26</v>
       </c>
       <c r="D4">
         <v>9</v>
@@ -465,7 +465,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>1692</v>

--- a/Overzicht_per_maand.xlsx
+++ b/Overzicht_per_maand.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>total_transactions</t>
   </si>
@@ -25,28 +25,16 @@
     <t>total_unique_customers</t>
   </si>
   <si>
-    <t>month_yr</t>
-  </si>
-  <si>
-    <t>Apr 2014</t>
-  </si>
-  <si>
-    <t>Jul 2014</t>
-  </si>
-  <si>
-    <t>Nov 2014</t>
-  </si>
-  <si>
-    <t>Oct 2014</t>
-  </si>
-  <si>
-    <t>Sep 2014</t>
+    <t>Orderdate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -99,9 +87,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -398,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -419,73 +410,45 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+      <c r="A2" s="2">
+        <v>41912</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>840</v>
+        <v>873</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
+      <c r="A3" s="2">
+        <v>41943</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>235</v>
+        <v>1743</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2">
+        <v>41973</v>
+      </c>
+      <c r="B4">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
       <c r="C4">
-        <v>6077.26</v>
+        <v>2866.54</v>
       </c>
       <c r="D4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1692</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>219</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Overzicht_per_maand.xlsx
+++ b/Overzicht_per_maand.xlsx
@@ -1,60 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>total_transactions</t>
-  </si>
-  <si>
-    <t>total_spent</t>
-  </si>
-  <si>
-    <t>total_unique_customers</t>
-  </si>
-  <si>
-    <t>Orderdate</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,18 +49,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -88,18 +60,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -388,952 +359,966 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Orderdate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>total_transactions</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>total_spent</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>total_unique_customers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>41759</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>840</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>41790</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>41820</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>41851</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>235</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>41882</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>41912</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>219</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>41943</v>
+      </c>
+      <c r="B8" t="n">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
-        <v>41759</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>840</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
-        <v>41790</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
-        <v>41820</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
-        <v>41851</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>235</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
-        <v>41882</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
-        <v>41912</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>219</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
-        <v>41943</v>
-      </c>
-      <c r="B8">
+      <c r="C8" t="n">
+        <v>1692</v>
+      </c>
+      <c r="D8" t="n">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>1692</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>41973</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>6077.259999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>57</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>56038.14999999999</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>42035</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>776</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>401476.1900000001</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>746</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>42063</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>687</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>337679.06</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>664</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>42094</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>834</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>418540.3400000001</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>806</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>42124</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>817</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>393430.01</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>791</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>42155</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>896</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>423833.0899999999</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>870</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>42185</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>1049</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>565137.9099999999</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>1010</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>42216</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>842</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>462881.9099999999</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>810</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>42247</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>901</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>488862.5300000001</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>875</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>42277</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>1234</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>626150.5100000004</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>1174</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>42308</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>1207</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>676739.8299999997</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>1159</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>42338</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>1423</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>865054.8000000003</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>1362</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>42369</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>1034</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>571760.5600000001</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>979</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>42400</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>861</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>477845.1700000001</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>833</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>42429</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>924</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>638571.35</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>889</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>42460</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>1094</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>711972.4699999999</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>1035</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>42490</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>1154</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>731060.1900000001</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>1104</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>42521</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>1368</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>845206.5999999995</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>1287</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>42551</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>1423</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>879388.3199999998</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>1342</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>42582</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>1022</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>609509.4500000007</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>974</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>42613</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>1276</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>798291.8899999994</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>1212</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>42643</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>1519</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>949944.529999999</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>1440</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>42674</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>1528</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>1155161.849999999</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>1451</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>42704</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>1948</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>1308369.069999998</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>1847</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>42735</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>1291</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>953484</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>1212</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>42766</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>1179</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>793354.6299999999</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>1109</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>42794</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>1200</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>792468.1099999998</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>1120</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>42825</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>1440</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>993401.6800000001</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>1348</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>42855</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>1134</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>774105.9800000001</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>1070</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>42886</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>1666</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>1218660.12</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>1565</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>42916</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>1908</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>1164767.23</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>1800</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>42947</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>1319</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>969855.9099999999</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>1242</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>42978</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>1717</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>1244974.39</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>1593</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>1964</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>1251024.19</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>1809</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>43039</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>2116</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>1442784.16</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>1958</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>43069</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>2647</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>1831951.619999999</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>2470</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>43100</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>1545</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>952578.4999999999</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>1445</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>43131</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>1755</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>1086268.02</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>1643</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>43159</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>1826</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>1239261.250000001</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>1717</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>43190</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>2333</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>1458730.28</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>2202</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>43220</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>2077</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>1167127.099999999</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>1949</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>43251</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>2473</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>1537594.099999998</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>2299</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>43281</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>2564</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>1609474.709999999</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>2405</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>43312</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>1994</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>1304263.62</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>1882</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>43343</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>2171</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>1287297.790000001</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>2035</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>43373</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>2417</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>1567386.89</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>2271</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>43404</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>3110</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>1993568.65</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>2856</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>43434</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>3810</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>2391473.709999998</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>3538</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>43465</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>2044</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>1260136.31</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>1922</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>43496</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>2195</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>1293376.11</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>2033</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>43524</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>2348</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>1452853.01</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>2184</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>43555</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>2755</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>1671194.43</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>2545</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>43585</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>2821</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>1558052.970000001</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>2628</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>43616</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>3469</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>1805894.81</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>3249</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>43646</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>3182</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>1719562.39</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>2992</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>43677</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>2615</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>1548840.07</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>2460</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>43708</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>2403</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>1205575.34</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>2233</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>43738</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>448</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>169923.82</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>433</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Overzicht_per_maand.xlsx
+++ b/Overzicht_per_maand.xlsx
@@ -1,40 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>total_transactions</t>
+  </si>
+  <si>
+    <t>total_spent</t>
+  </si>
+  <si>
+    <t>total_unique_customers</t>
+  </si>
+  <si>
+    <t>Orderdate</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,10 +69,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -60,17 +88,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -359,966 +388,952 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Orderdate</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>total_transactions</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>total_spent</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>total_unique_customers</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>41759</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>840</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>41790</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>41820</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>41851</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>235</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>41882</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>41912</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>219</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>41943</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1692</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>41973</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>9</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>6077.259999999999</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>42004</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>57</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>56038.14999999999</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>57</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>42035</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>776</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>401476.1900000001</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>746</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>42063</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>687</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>337679.06</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>664</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>42094</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>834</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>418540.3400000001</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>806</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>42124</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>817</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>393430.01</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>791</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>42155</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>896</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>423833.0899999999</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>870</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>42185</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1049</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>565137.9099999999</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>1010</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
         <v>42216</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>842</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>462881.9099999999</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>810</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
         <v>42247</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>901</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>488862.5300000001</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>875</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
         <v>42277</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1234</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>626150.5100000004</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>1174</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
         <v>42308</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>1207</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>676739.8299999997</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>1159</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
         <v>42338</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1423</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>865054.8000000003</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>1362</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
         <v>42369</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>1034</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>571760.5600000001</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>979</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
         <v>42400</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>861</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>477845.1700000001</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>833</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
         <v>42429</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>924</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>638571.35</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>889</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
         <v>42460</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1094</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>711972.4699999999</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>1035</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
         <v>42490</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1154</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>731060.1900000001</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>1104</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
         <v>42521</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1368</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>845206.5999999995</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>1287</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
         <v>42551</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1423</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>879388.3199999998</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>1342</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
         <v>42582</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1022</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>609509.4500000007</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>974</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
         <v>42613</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1276</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>798291.8899999994</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>1212</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
         <v>42643</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1519</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>949944.529999999</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>1440</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
         <v>42674</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1528</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1155161.849999999</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>1451</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
         <v>42704</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1948</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1308369.069999998</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>1847</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
         <v>42735</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1291</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>953484</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>1212</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
         <v>42766</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1179</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>793354.6299999999</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>1109</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
         <v>42794</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1200</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>792468.1099999998</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>1120</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>42825</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1440</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>993401.6800000001</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>1348</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
         <v>42855</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>1134</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>774105.9800000001</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>1070</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
         <v>42886</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>1666</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1218660.12</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>1565</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
         <v>42916</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>1908</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>1164767.23</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>1800</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
         <v>42947</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>1319</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>969855.9099999999</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>1242</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
         <v>42978</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>1717</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>1244974.39</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>1593</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
         <v>43008</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>1964</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>1251024.19</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>1809</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
         <v>43039</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>2116</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>1442784.16</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>1958</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
         <v>43069</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>2647</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>1831951.619999999</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>2470</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
         <v>43100</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>1545</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>952578.4999999999</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>1445</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
         <v>43131</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1755</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1086268.02</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>1643</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
         <v>43159</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1826</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>1239261.250000001</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>1717</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
         <v>43190</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>2333</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>1458730.28</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>2202</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
         <v>43220</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>2077</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>1167127.099999999</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>1949</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
         <v>43251</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>2473</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>1537594.099999998</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>2299</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
         <v>43281</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>2564</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>1609474.709999999</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>2405</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
         <v>43312</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>1994</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>1304263.62</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>1882</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
         <v>43343</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>2171</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>1287297.790000001</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>2035</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
         <v>43373</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>2417</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>1567386.89</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>2271</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
         <v>43404</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>3110</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>1993568.65</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>2856</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
         <v>43434</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>3810</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>2391473.709999998</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>3538</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
         <v>43465</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>2044</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>1260136.31</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>1922</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
         <v>43496</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>2195</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>1293376.11</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>2033</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
         <v>43524</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>2348</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>1452853.01</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>2184</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
         <v>43555</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>2755</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>1671194.43</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>2545</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
         <v>43585</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>2821</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>1558052.970000001</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>2628</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
         <v>43616</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>3469</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>1805894.81</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>3249</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
         <v>43646</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>3182</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>1719562.39</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>2992</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
         <v>43677</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>2615</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>1548840.07</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>2460</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
         <v>43708</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>2403</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>1205575.34</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>2233</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
         <v>43738</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>448</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>169923.82</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>433</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>